--- a/docs/ganttChartNew.xlsx
+++ b/docs/ganttChartNew.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakelyfrechette/Desktop/banana/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF12EB6B-C60C-4B4D-BEC0-5A7D98559A78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="1020" windowWidth="14520" windowHeight="13080" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,8 @@
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
     <sheet name="SA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
   <si>
     <t>Total</t>
   </si>
@@ -105,9 +105,6 @@
     <t>totals</t>
   </si>
   <si>
-    <t>Import sounds in assets folder</t>
-  </si>
-  <si>
     <t>group totals (hrs)</t>
   </si>
   <si>
@@ -195,34 +192,49 @@
     <t>Release Build</t>
   </si>
   <si>
-    <t xml:space="preserve">Class Diagram </t>
-  </si>
-  <si>
-    <t>Create Sound Class</t>
-  </si>
-  <si>
     <t>Haptic Response</t>
   </si>
   <si>
-    <t>Player Sound effects</t>
-  </si>
-  <si>
     <t>Coding Standards</t>
   </si>
   <si>
-    <t>RFP (3.0 - 5.0)</t>
+    <t>Import Sounds</t>
+  </si>
+  <si>
+    <t>Sound Class</t>
+  </si>
+  <si>
+    <t>Sound Effects Class</t>
+  </si>
+  <si>
+    <t>Background Class</t>
+  </si>
+  <si>
+    <t>Test Plans</t>
+  </si>
+  <si>
+    <t>Singleton Pattern</t>
+  </si>
+  <si>
+    <t>Template Pattern</t>
+  </si>
+  <si>
+    <t>Documentation &amp; Standards</t>
+  </si>
+  <si>
+    <t>Sound Manager Class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;[Red]\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -241,6 +253,18 @@
       <color rgb="FF000000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -312,8 +336,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -522,12 +546,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,7 +680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,9 +713,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,6 +765,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -899,58 +957,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="1" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="O2" s="50" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="O2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -988,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1096,7 @@
         <v>-375</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1088,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1138,7 +1196,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1188,16 +1246,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="13">
-        <f t="shared" si="0"/>
+        <f>(G8+K8+O8)</f>
         <v>1000</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" si="0"/>
+        <f>(H8+L8+P8)</f>
         <v>400</v>
       </c>
       <c r="E8" s="14">
@@ -1236,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
@@ -1350,24 +1408,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:L27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -1390,7 +1448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1534,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1487,7 +1545,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1556,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1506,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1517,7 +1575,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1530,12 +1588,12 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1548,14 +1606,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1565,9 +1623,9 @@
       </c>
       <c r="E22" s="30"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1577,9 +1635,9 @@
       </c>
       <c r="F23" s="44"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1589,9 +1647,9 @@
       </c>
       <c r="G24" s="44"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1601,9 +1659,9 @@
       </c>
       <c r="H25" s="44"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1613,9 +1671,9 @@
       </c>
       <c r="I26" s="44"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -1627,9 +1685,9 @@
       <c r="K27" s="46"/>
       <c r="L27" s="46"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -1640,9 +1698,9 @@
       <c r="M28" s="45"/>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1652,7 +1710,7 @@
       </c>
       <c r="O29" s="45"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1665,12 +1723,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1740,7 @@
       </c>
       <c r="E32" s="44"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1694,9 +1752,9 @@
       </c>
       <c r="E33" s="44"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -1704,9 +1762,9 @@
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -1714,9 +1772,9 @@
       <c r="E35" s="45"/>
       <c r="F35" s="45"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -1724,7 +1782,7 @@
       <c r="E36" s="45"/>
       <c r="F36" s="45"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1737,159 +1795,253 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="C40" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="49">
+        <v>1</v>
+      </c>
+      <c r="C41" s="49">
+        <v>1</v>
+      </c>
+      <c r="D41" s="49"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="49">
+        <v>1</v>
+      </c>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="49">
+        <v>7</v>
+      </c>
+      <c r="C43" s="49">
+        <v>7</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="49"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="49">
+        <v>12</v>
+      </c>
+      <c r="C44" s="49">
+        <v>4</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="49"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="49">
+        <v>4</v>
+      </c>
+      <c r="C45" s="49">
+        <v>7</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="49">
+        <v>4</v>
+      </c>
+      <c r="C46" s="49">
+        <v>7</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="C47" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="49"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B40">
-        <v>1.5</v>
-      </c>
-      <c r="C40">
-        <v>1.5</v>
-      </c>
-      <c r="E40" s="44"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41">
-        <v>1.5</v>
-      </c>
-      <c r="C41">
-        <v>1.5</v>
-      </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="47"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42">
+      <c r="B48" s="49">
+        <v>10</v>
+      </c>
+      <c r="C48" s="49">
+        <v>7</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="49">
+        <v>2</v>
+      </c>
+      <c r="C50" s="49">
+        <v>8</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="49">
         <v>1</v>
       </c>
-      <c r="C42">
+      <c r="C51" s="49">
         <v>1</v>
       </c>
-      <c r="E42" s="48"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43">
-        <v>0.5</v>
-      </c>
-      <c r="C43">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="48"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="C44">
-        <v>2.5</v>
-      </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="46"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45">
+      <c r="D51" s="49"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="49">
         <v>4</v>
       </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46">
+      <c r="C52" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="D52" s="49"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53">
+        <f>SUM(B40:B52)</f>
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <f>SUM(C40:C52)</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C46">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="49"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48">
-        <v>1.5</v>
-      </c>
-      <c r="C48">
-        <v>0.25</v>
-      </c>
-      <c r="E48" s="46"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52">
-        <f>SUM(B40:B51)</f>
-        <v>33</v>
-      </c>
-      <c r="C52">
-        <f>SUM(C40:C51)</f>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>20</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="25"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>21</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1899,43 +2051,55 @@
       </c>
       <c r="E55" s="25"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="25"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>24</v>
       </c>
-      <c r="B60">
-        <f>SUM(B54:B59)</f>
+      <c r="B61">
+        <f>SUM(B55:B60)</f>
         <v>2</v>
       </c>
-      <c r="C60">
-        <f>SUM(C54:C59)</f>
+      <c r="C61">
+        <f>SUM(C55:C60)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <f>SUM(B30,B38,B20,B10,B53,B61)</f>
+        <v>111.5</v>
+      </c>
+      <c r="C62">
+        <f>SUM(C10,C20,C30,C38,C53,C61)</f>
+        <v>73.83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>26</v>
       </c>
-      <c r="B61">
-        <f>SUM(B30,B38,B20,B10,B52,B60)</f>
-        <v>93.5</v>
-      </c>
-      <c r="C61">
-        <f>SUM(C10,C20,C30,C38,C52,C60)</f>
-        <v>34.08</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="31">
-        <f>B61*100</f>
-        <v>9350</v>
-      </c>
-      <c r="C62" s="31">
-        <f>C61*100</f>
-        <v>3408</v>
+      <c r="B63" s="31">
+        <f>B62*100</f>
+        <v>11150</v>
+      </c>
+      <c r="C63" s="31">
+        <f>C62*100</f>
+        <v>7383</v>
       </c>
     </row>
   </sheetData>
@@ -1945,21 +2109,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="32">
         <v>43489</v>
@@ -1977,59 +2141,59 @@
         <v>43502</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C3" s="3">
         <v>1.5</v>
@@ -2062,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2071,19 +2235,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
@@ -2091,7 +2255,7 @@
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2100,23 +2264,23 @@
         <v>3.5</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2125,19 +2289,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -2145,7 +2309,7 @@
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -2154,19 +2318,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -2174,7 +2338,7 @@
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2183,22 +2347,22 @@
         <v>4</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2207,19 +2371,19 @@
         <v>2.5</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -2268,9 +2432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2280,33 +2444,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
-    <col min="20" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="36"/>
       <c r="B1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>37</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -2354,18 +2518,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="39"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2374,9 +2538,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2385,9 +2549,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2396,10 +2560,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3">
         <f>SUM(C2:C5)</f>
@@ -2410,37 +2574,37 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="39"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="39"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="39"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D10" s="39"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3">
         <f>SUM(C7:C10)</f>
@@ -2451,18 +2615,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="39"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2473,9 +2637,9 @@
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -2488,9 +2652,9 @@
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -2501,7 +2665,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2513,7 +2677,7 @@
       </c>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2525,10 +2689,10 @@
       </c>
       <c r="L17" s="44"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3">
         <f>SUM(C12:C17)</f>
@@ -2539,12 +2703,12 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2554,9 +2718,9 @@
       </c>
       <c r="E19" s="44"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2568,9 +2732,9 @@
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -2586,9 +2750,9 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2599,10 +2763,10 @@
       <c r="E22" s="44"/>
       <c r="F22" s="44"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3">
         <f>SUM(C19:C22)</f>
@@ -2613,18 +2777,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="39"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>1.5</v>
@@ -2633,9 +2797,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -2644,9 +2808,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>1.5</v>
@@ -2655,9 +2819,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="3">
         <f>SUM(C24:C27)</f>
@@ -2668,18 +2832,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2689,9 +2853,9 @@
       </c>
       <c r="E30" s="44"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2701,18 +2865,18 @@
       </c>
       <c r="E31" s="44"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3">
         <f>SUM(C29:C32)</f>
@@ -2723,7 +2887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="42"/>
       <c r="B34" s="43" t="s">
         <v>0</v>
